--- a/doc/bug-report.xlsx
+++ b/doc/bug-report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
   <si>
     <t>Reported Date</t>
   </si>
@@ -203,6 +203,21 @@
   </si>
   <si>
     <t>World system? Make sure that animation is always applied after changing direction</t>
+  </si>
+  <si>
+    <t>Physics collisions don't always work when there are chains of physics objects. Sometimes, the 'blocked' won't update and the physcis objects can be pushed into each other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chains of objects (3 cubes pushed into each other) should all collide properly. </t>
+  </si>
+  <si>
+    <t>Objects collide properly, no matter how many</t>
+  </si>
+  <si>
+    <t>Place 3 cubes beside each other and try and push them into a wall. Sometimes a cube will go inside another cube</t>
+  </si>
+  <si>
+    <t>Physics System. Need to change collisions so they either do not rely on the blocked component, or to do multiple iterations of collision checking/processing per frame.</t>
   </si>
 </sst>
 </file>
@@ -297,7 +312,7 @@
     <xdr:ext cx="1962150" cy="1457325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -325,7 +340,7 @@
     <xdr:ext cx="1828800" cy="1171575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -835,16 +850,34 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="3">
+        <v>45711.0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="F9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="K9" s="5"/>
       <c r="L9" s="2"/>
     </row>
